--- a/Excel/time_series_19-covid-Confirmed-0313.xlsx
+++ b/Excel/time_series_19-covid-Confirmed-0313.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\Documents\Python Scripts\Outbreak_Mapping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\Documents\Python Scripts\Outbreak_Mapping\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C037CEB9-AC9E-44DC-8DAE-554394D8E540}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F9AD98-4EC1-4F65-A42E-186E279A18A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4389,8 +4389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BB416"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM406" workbookViewId="0">
-      <selection activeCell="AV422" sqref="AV422"/>
+    <sheetView tabSelected="1" topLeftCell="AM121" workbookViewId="0">
+      <selection activeCell="AV411" sqref="AV411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
